--- a/ccj-student-portal/excel/ccj-student-portal-guide.xlsx
+++ b/ccj-student-portal/excel/ccj-student-portal-guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rmmccomsoc\ccj-student-portal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF6E93B-5302-459C-BA64-8CBA2F1A878F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE7F56-AAB0-4ABE-A766-11F78A204D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8928" xr2:uid="{5CA2DDE2-AD91-4AFE-8FD0-C2B9DC021572}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="27000" windowHeight="14115" xr2:uid="{5CA2DDE2-AD91-4AFE-8FD0-C2B9DC021572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Last Name</t>
   </si>
@@ -36,46 +36,49 @@
     <t>Middle Name</t>
   </si>
   <si>
-    <t>BSIT</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Account Number (10 digits)</t>
   </si>
   <si>
     <t>Phone Number (starts with 9 and is exactly 10 digit long)</t>
   </si>
   <si>
-    <t>Program (BSIT, BSCS, BLIS, ACT)</t>
-  </si>
-  <si>
     <t>Year Level (1, 2, 3, 4)</t>
-  </si>
-  <si>
-    <t>Gender (Male, Female)</t>
-  </si>
-  <si>
-    <t>Please fill in the student information below, ensuring that all data follows the provided guidelines.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Ex: 2211600042</t>
-  </si>
-  <si>
-    <t>Bognot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian Angelo </t>
-  </si>
-  <si>
     <t>Delfin</t>
   </si>
   <si>
+    <t>Ex: 2211600042 (Required)</t>
+  </si>
+  <si>
+    <t>Bognot (Required)</t>
+  </si>
+  <si>
+    <t>Brian Angelo (Required)</t>
+  </si>
+  <si>
+    <t>2 (Required)</t>
+  </si>
+  <si>
+    <t>Gender (M, F)</t>
+  </si>
+  <si>
+    <t>M (Required)</t>
+  </si>
+  <si>
+    <t>Please fill in the student information below, making sure to follow the guidelines in (parentheses to ensure the data is read correctly).</t>
+  </si>
+  <si>
     <t>Enrolling A Student in CCJ Portal using Excel File</t>
+  </si>
+  <si>
+    <t>Program (BSCrim)</t>
+  </si>
+  <si>
+    <t>BSCrim (Required)</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,25 +718,25 @@
   <dimension ref="A1:I648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="52" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -744,9 +747,9 @@
       <c r="H1" s="16"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -757,9 +760,9 @@
       <c r="H2" s="16"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -771,45 +774,45 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H4" s="8">
         <v>9946022956</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -819,7 +822,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -829,7 +832,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -839,7 +842,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -849,7 +852,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -859,7 +862,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -869,7 +872,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -879,7 +882,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -889,7 +892,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -899,19 +902,19 @@
       <c r="G13" s="2"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -921,7 +924,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -931,7 +934,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -941,7 +944,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -951,7 +954,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -961,7 +964,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -971,7 +974,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -981,7 +984,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -991,7 +994,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1001,7 +1004,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1011,7 +1014,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1021,7 +1024,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1031,7 +1034,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1041,7 +1044,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1051,7 +1054,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1061,7 +1064,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1071,7 +1074,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1081,7 +1084,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1091,7 +1094,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1101,7 +1104,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1111,7 +1114,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1121,7 +1124,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1131,7 +1134,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1141,7 +1144,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1151,7 +1154,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1161,7 +1164,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1171,7 +1174,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1181,7 +1184,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1191,7 +1194,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1201,7 +1204,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1211,7 +1214,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1221,7 +1224,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1231,7 +1234,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1241,7 +1244,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1251,7 +1254,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1261,7 +1264,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1271,7 +1274,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1281,7 +1284,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1291,7 +1294,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1301,7 +1304,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1311,7 +1314,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1321,7 +1324,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1331,7 +1334,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1341,7 +1344,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1351,7 +1354,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1361,7 +1364,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1371,7 +1374,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1381,7 +1384,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1391,7 +1394,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1401,7 +1404,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1411,7 +1414,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1421,7 +1424,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1431,7 +1434,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1441,7 +1444,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1451,7 +1454,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1461,7 +1464,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1471,7 +1474,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1481,7 +1484,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1491,7 +1494,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1501,7 +1504,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1511,7 +1514,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1521,7 +1524,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1531,7 +1534,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1541,7 +1544,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1551,7 +1554,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1561,7 +1564,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1571,7 +1574,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1581,7 +1584,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1591,7 +1594,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1601,7 +1604,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1611,7 +1614,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1621,7 +1624,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1631,7 +1634,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1641,7 +1644,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1651,7 +1654,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1661,7 +1664,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1671,7 +1674,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1681,7 +1684,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1691,7 +1694,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1701,7 +1704,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1711,7 +1714,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1721,7 +1724,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1731,7 +1734,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1741,7 +1744,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1751,7 +1754,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1761,7 +1764,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1771,7 +1774,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1781,7 +1784,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1791,7 +1794,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1801,7 +1804,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1811,7 +1814,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1821,7 +1824,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1831,7 +1834,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1841,7 +1844,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1851,7 +1854,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1861,7 +1864,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1871,7 +1874,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1881,7 +1884,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1891,7 +1894,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1901,7 +1904,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="11"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1911,7 +1914,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1921,7 +1924,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1931,7 +1934,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1941,7 +1944,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1951,7 +1954,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1961,7 +1964,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1971,7 +1974,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1981,7 +1984,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1991,7 +1994,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2001,7 +2004,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2011,7 +2014,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2021,7 +2024,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2031,7 +2034,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2041,7 +2044,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2051,7 +2054,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2061,7 +2064,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2071,7 +2074,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2081,7 +2084,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2091,7 +2094,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2101,7 +2104,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="11"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2111,7 +2114,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2121,7 +2124,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="11"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2131,7 +2134,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2141,7 +2144,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="11"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2151,7 +2154,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2161,7 +2164,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2171,7 +2174,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2181,7 +2184,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2191,7 +2194,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="11"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2201,7 +2204,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2211,7 +2214,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="11"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2221,7 +2224,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="11"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2231,7 +2234,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="11"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2241,7 +2244,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2251,7 +2254,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2261,7 +2264,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2271,7 +2274,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2281,7 +2284,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2291,7 +2294,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="11"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2301,7 +2304,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="11"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2311,7 +2314,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="11"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2321,7 +2324,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="11"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2331,7 +2334,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2341,7 +2344,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="11"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2351,7 +2354,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2361,7 +2364,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2371,7 +2374,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2381,7 +2384,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2391,7 +2394,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2401,7 +2404,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2411,7 +2414,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2421,7 +2424,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="11"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2431,7 +2434,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2441,7 +2444,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2451,7 +2454,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2461,7 +2464,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2471,7 +2474,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2481,7 +2484,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2491,7 +2494,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2501,7 +2504,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="11"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2511,7 +2514,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="11"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2521,7 +2524,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="11"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2531,7 +2534,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="11"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2541,7 +2544,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="11"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2551,7 +2554,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="11"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2561,7 +2564,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2571,7 +2574,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="11"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2581,7 +2584,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="11"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2591,7 +2594,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="11"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2601,7 +2604,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="11"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2611,7 +2614,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="11"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2621,7 +2624,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="11"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2631,7 +2634,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2641,7 +2644,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2651,7 +2654,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="11"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2661,7 +2664,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="11"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2671,7 +2674,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="11"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2681,7 +2684,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="11"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2691,7 +2694,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="11"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2701,7 +2704,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="11"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2711,7 +2714,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="11"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2721,7 +2724,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="11"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2731,7 +2734,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="11"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2741,7 +2744,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="11"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2751,7 +2754,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="11"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2761,7 +2764,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="11"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2771,7 +2774,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="11"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2781,7 +2784,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="11"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2791,7 +2794,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="11"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2801,7 +2804,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="11"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2811,7 +2814,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="11"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2821,7 +2824,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="11"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2831,7 +2834,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="11"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2841,7 +2844,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="11"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2851,7 +2854,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="11"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2861,7 +2864,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="11"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2871,7 +2874,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="11"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2881,7 +2884,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="11"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2891,7 +2894,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="11"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2901,7 +2904,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="11"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2911,7 +2914,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="11"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2921,7 +2924,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="11"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2931,7 +2934,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="11"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2941,7 +2944,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="11"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2951,7 +2954,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="11"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2961,7 +2964,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="11"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2971,7 +2974,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="11"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -2981,7 +2984,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="11"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -2991,7 +2994,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="11"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3001,7 +3004,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="11"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -3011,7 +3014,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="11"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -3021,7 +3024,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="11"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -3031,7 +3034,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="11"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -3041,7 +3044,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="11"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -3051,7 +3054,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="11"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -3061,7 +3064,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="11"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -3071,7 +3074,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="11"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -3081,7 +3084,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="11"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3091,7 +3094,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="11"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -3101,7 +3104,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="11"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3111,7 +3114,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="11"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3121,7 +3124,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="11"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3131,7 +3134,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="11"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3141,7 +3144,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="11"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3151,7 +3154,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="11"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3161,7 +3164,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="11"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3171,7 +3174,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="11"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3181,7 +3184,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="11"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -3191,7 +3194,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="11"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -3201,7 +3204,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="11"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -3211,7 +3214,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="11"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -3221,7 +3224,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="11"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -3231,7 +3234,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="11"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -3241,7 +3244,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="11"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -3251,7 +3254,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="11"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -3261,7 +3264,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="11"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -3271,7 +3274,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="11"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -3281,7 +3284,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="11"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -3291,7 +3294,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="11"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -3301,7 +3304,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="11"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -3311,7 +3314,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="11"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -3321,7 +3324,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="11"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -3331,7 +3334,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="11"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -3341,7 +3344,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="11"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -3351,7 +3354,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="11"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -3361,7 +3364,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="11"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -3371,7 +3374,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="11"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -3381,7 +3384,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="11"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -3391,7 +3394,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="11"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -3401,7 +3404,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="11"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -3411,7 +3414,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="11"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -3421,7 +3424,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="11"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -3431,7 +3434,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="11"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -3441,7 +3444,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="11"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -3451,7 +3454,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="11"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -3461,7 +3464,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="11"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -3471,7 +3474,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="11"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -3481,7 +3484,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="11"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -3491,7 +3494,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="11"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -3501,7 +3504,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="11"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -3511,7 +3514,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="11"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -3521,7 +3524,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="11"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -3531,7 +3534,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="11"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -3541,7 +3544,7 @@
       <c r="G277" s="2"/>
       <c r="H277" s="11"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -3551,7 +3554,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="11"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -3561,7 +3564,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="11"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -3571,7 +3574,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="11"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -3581,7 +3584,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="11"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -3591,7 +3594,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="11"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -3601,7 +3604,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="11"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -3611,7 +3614,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="11"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -3621,7 +3624,7 @@
       <c r="G285" s="2"/>
       <c r="H285" s="11"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -3631,7 +3634,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="11"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -3641,7 +3644,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="11"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -3651,7 +3654,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="11"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -3661,7 +3664,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="11"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -3671,7 +3674,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="11"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -3681,7 +3684,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="11"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -3691,7 +3694,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="11"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -3701,7 +3704,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="11"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -3711,7 +3714,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="11"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -3721,7 +3724,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="11"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -3731,7 +3734,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="11"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -3741,7 +3744,7 @@
       <c r="G297" s="2"/>
       <c r="H297" s="11"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -3751,7 +3754,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="11"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -3761,7 +3764,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="11"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -3771,7 +3774,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="11"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -3781,7 +3784,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="11"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -3791,7 +3794,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="11"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -3801,7 +3804,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="11"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -3811,7 +3814,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="11"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -3821,7 +3824,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="11"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -3831,7 +3834,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="11"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -3841,7 +3844,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="11"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -3851,7 +3854,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="11"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -3861,7 +3864,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="11"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -3871,7 +3874,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="11"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -3881,7 +3884,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="11"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -3891,7 +3894,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="11"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -3901,7 +3904,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="11"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -3911,7 +3914,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="11"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -3921,7 +3924,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="11"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -3931,7 +3934,7 @@
       <c r="G316" s="2"/>
       <c r="H316" s="11"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -3941,7 +3944,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="11"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -3951,7 +3954,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="11"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -3961,7 +3964,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="11"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -3971,7 +3974,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="11"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -3981,7 +3984,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="11"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -3991,7 +3994,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="11"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -4001,7 +4004,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="11"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -4011,7 +4014,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="11"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -4021,7 +4024,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="11"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -4031,7 +4034,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="11"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -4041,7 +4044,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="11"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -4051,7 +4054,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="11"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -4061,7 +4064,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="11"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -4071,7 +4074,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="11"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -4081,7 +4084,7 @@
       <c r="G331" s="2"/>
       <c r="H331" s="11"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -4091,7 +4094,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="11"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -4101,7 +4104,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="11"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -4111,7 +4114,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="11"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -4121,7 +4124,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="11"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -4131,7 +4134,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="11"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -4141,7 +4144,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="11"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -4151,7 +4154,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="11"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -4161,7 +4164,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="11"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -4171,7 +4174,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="11"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -4181,7 +4184,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="11"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -4191,7 +4194,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="11"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -4201,7 +4204,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="11"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -4211,7 +4214,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="11"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -4221,7 +4224,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="11"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -4231,7 +4234,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="11"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -4241,7 +4244,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="11"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -4251,7 +4254,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="11"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -4261,7 +4264,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="11"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -4271,7 +4274,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="11"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -4281,7 +4284,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="11"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -4291,7 +4294,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="11"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -4301,7 +4304,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="11"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -4311,7 +4314,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="11"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -4321,7 +4324,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="11"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -4331,7 +4334,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="11"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -4341,7 +4344,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="11"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -4351,7 +4354,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="11"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -4361,7 +4364,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="11"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -4371,7 +4374,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="11"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -4381,7 +4384,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="11"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -4391,7 +4394,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="11"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -4401,7 +4404,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="11"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -4411,7 +4414,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="11"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -4421,7 +4424,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="11"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -4431,7 +4434,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="11"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -4441,7 +4444,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="11"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -4451,7 +4454,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="11"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -4461,7 +4464,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="11"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -4471,7 +4474,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="11"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -4481,7 +4484,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="11"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -4491,7 +4494,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="11"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -4501,7 +4504,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="11"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -4511,7 +4514,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="11"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -4521,7 +4524,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="11"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -4531,7 +4534,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="11"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -4541,7 +4544,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="11"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -4551,7 +4554,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="11"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -4561,7 +4564,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="11"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -4571,7 +4574,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="11"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -4581,7 +4584,7 @@
       <c r="G381" s="2"/>
       <c r="H381" s="11"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -4591,7 +4594,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="11"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -4601,7 +4604,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="11"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -4611,7 +4614,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="11"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -4621,7 +4624,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="11"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -4631,7 +4634,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="11"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -4641,7 +4644,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="11"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -4651,7 +4654,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="11"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -4661,7 +4664,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="11"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -4671,7 +4674,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="11"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -4681,7 +4684,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="11"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -4691,7 +4694,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="11"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -4701,7 +4704,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="11"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -4711,7 +4714,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="11"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -4721,7 +4724,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="11"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -4731,7 +4734,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="11"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -4741,7 +4744,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="11"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -4751,7 +4754,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="11"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -4761,7 +4764,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="11"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -4771,7 +4774,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="11"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -4781,7 +4784,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="11"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -4791,7 +4794,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="11"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -4801,7 +4804,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="11"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -4811,7 +4814,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="11"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -4821,7 +4824,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="11"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -4831,7 +4834,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="11"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -4841,7 +4844,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="11"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -4851,7 +4854,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="11"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -4861,7 +4864,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="11"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -4871,7 +4874,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="11"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -4881,7 +4884,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="11"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -4891,7 +4894,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="11"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -4901,7 +4904,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="11"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -4911,7 +4914,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="11"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -4921,7 +4924,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="11"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -4931,7 +4934,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="11"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -4941,7 +4944,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="11"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -4951,7 +4954,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="11"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -4961,7 +4964,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="11"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -4971,7 +4974,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="11"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -4981,7 +4984,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="11"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -4991,7 +4994,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="11"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -5001,7 +5004,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="11"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -5011,7 +5014,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="11"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -5021,7 +5024,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="11"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -5031,7 +5034,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="11"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -5041,7 +5044,7 @@
       <c r="G427" s="2"/>
       <c r="H427" s="11"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -5051,7 +5054,7 @@
       <c r="G428" s="2"/>
       <c r="H428" s="11"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -5061,7 +5064,7 @@
       <c r="G429" s="2"/>
       <c r="H429" s="11"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -5071,7 +5074,7 @@
       <c r="G430" s="2"/>
       <c r="H430" s="11"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -5081,7 +5084,7 @@
       <c r="G431" s="2"/>
       <c r="H431" s="11"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -5091,7 +5094,7 @@
       <c r="G432" s="2"/>
       <c r="H432" s="11"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -5101,7 +5104,7 @@
       <c r="G433" s="2"/>
       <c r="H433" s="11"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -5111,7 +5114,7 @@
       <c r="G434" s="2"/>
       <c r="H434" s="11"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -5121,7 +5124,7 @@
       <c r="G435" s="2"/>
       <c r="H435" s="11"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -5131,7 +5134,7 @@
       <c r="G436" s="2"/>
       <c r="H436" s="11"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -5141,7 +5144,7 @@
       <c r="G437" s="2"/>
       <c r="H437" s="11"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -5151,7 +5154,7 @@
       <c r="G438" s="2"/>
       <c r="H438" s="11"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -5161,7 +5164,7 @@
       <c r="G439" s="2"/>
       <c r="H439" s="11"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -5171,7 +5174,7 @@
       <c r="G440" s="2"/>
       <c r="H440" s="11"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -5181,7 +5184,7 @@
       <c r="G441" s="2"/>
       <c r="H441" s="11"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -5191,7 +5194,7 @@
       <c r="G442" s="2"/>
       <c r="H442" s="11"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -5201,7 +5204,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="11"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -5211,7 +5214,7 @@
       <c r="G444" s="2"/>
       <c r="H444" s="11"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -5221,7 +5224,7 @@
       <c r="G445" s="2"/>
       <c r="H445" s="11"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -5231,7 +5234,7 @@
       <c r="G446" s="2"/>
       <c r="H446" s="11"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -5241,7 +5244,7 @@
       <c r="G447" s="2"/>
       <c r="H447" s="11"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -5251,7 +5254,7 @@
       <c r="G448" s="2"/>
       <c r="H448" s="11"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -5261,7 +5264,7 @@
       <c r="G449" s="2"/>
       <c r="H449" s="11"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -5271,7 +5274,7 @@
       <c r="G450" s="2"/>
       <c r="H450" s="11"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -5281,7 +5284,7 @@
       <c r="G451" s="2"/>
       <c r="H451" s="11"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -5291,7 +5294,7 @@
       <c r="G452" s="2"/>
       <c r="H452" s="11"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -5301,7 +5304,7 @@
       <c r="G453" s="2"/>
       <c r="H453" s="11"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -5311,7 +5314,7 @@
       <c r="G454" s="2"/>
       <c r="H454" s="11"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -5321,7 +5324,7 @@
       <c r="G455" s="2"/>
       <c r="H455" s="11"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -5331,7 +5334,7 @@
       <c r="G456" s="2"/>
       <c r="H456" s="11"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -5341,7 +5344,7 @@
       <c r="G457" s="2"/>
       <c r="H457" s="11"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -5351,7 +5354,7 @@
       <c r="G458" s="2"/>
       <c r="H458" s="11"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -5361,7 +5364,7 @@
       <c r="G459" s="2"/>
       <c r="H459" s="11"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -5371,7 +5374,7 @@
       <c r="G460" s="2"/>
       <c r="H460" s="11"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -5381,7 +5384,7 @@
       <c r="G461" s="2"/>
       <c r="H461" s="11"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -5391,7 +5394,7 @@
       <c r="G462" s="2"/>
       <c r="H462" s="11"/>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -5401,7 +5404,7 @@
       <c r="G463" s="2"/>
       <c r="H463" s="11"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -5411,7 +5414,7 @@
       <c r="G464" s="2"/>
       <c r="H464" s="11"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -5421,7 +5424,7 @@
       <c r="G465" s="2"/>
       <c r="H465" s="11"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -5431,7 +5434,7 @@
       <c r="G466" s="2"/>
       <c r="H466" s="11"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -5441,7 +5444,7 @@
       <c r="G467" s="2"/>
       <c r="H467" s="11"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -5451,7 +5454,7 @@
       <c r="G468" s="2"/>
       <c r="H468" s="11"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -5461,7 +5464,7 @@
       <c r="G469" s="2"/>
       <c r="H469" s="11"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -5471,7 +5474,7 @@
       <c r="G470" s="2"/>
       <c r="H470" s="11"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -5481,7 +5484,7 @@
       <c r="G471" s="2"/>
       <c r="H471" s="11"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -5491,7 +5494,7 @@
       <c r="G472" s="2"/>
       <c r="H472" s="11"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -5501,7 +5504,7 @@
       <c r="G473" s="2"/>
       <c r="H473" s="11"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -5511,7 +5514,7 @@
       <c r="G474" s="2"/>
       <c r="H474" s="11"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -5521,7 +5524,7 @@
       <c r="G475" s="2"/>
       <c r="H475" s="11"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -5531,7 +5534,7 @@
       <c r="G476" s="2"/>
       <c r="H476" s="11"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -5541,7 +5544,7 @@
       <c r="G477" s="2"/>
       <c r="H477" s="11"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -5551,7 +5554,7 @@
       <c r="G478" s="2"/>
       <c r="H478" s="11"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -5561,7 +5564,7 @@
       <c r="G479" s="2"/>
       <c r="H479" s="11"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -5571,7 +5574,7 @@
       <c r="G480" s="2"/>
       <c r="H480" s="7"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -5581,7 +5584,7 @@
       <c r="G481" s="2"/>
       <c r="H481" s="7"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -5591,7 +5594,7 @@
       <c r="G482" s="2"/>
       <c r="H482" s="7"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -5601,7 +5604,7 @@
       <c r="G483" s="2"/>
       <c r="H483" s="7"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -5611,7 +5614,7 @@
       <c r="G484" s="2"/>
       <c r="H484" s="7"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -5621,7 +5624,7 @@
       <c r="G485" s="2"/>
       <c r="H485" s="7"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -5631,7 +5634,7 @@
       <c r="G486" s="2"/>
       <c r="H486" s="7"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -5641,7 +5644,7 @@
       <c r="G487" s="2"/>
       <c r="H487" s="7"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -5651,7 +5654,7 @@
       <c r="G488" s="2"/>
       <c r="H488" s="7"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -5661,7 +5664,7 @@
       <c r="G489" s="2"/>
       <c r="H489" s="7"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -5671,7 +5674,7 @@
       <c r="G490" s="2"/>
       <c r="H490" s="7"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -5681,7 +5684,7 @@
       <c r="G491" s="2"/>
       <c r="H491" s="7"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -5691,7 +5694,7 @@
       <c r="G492" s="2"/>
       <c r="H492" s="7"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -5701,7 +5704,7 @@
       <c r="G493" s="2"/>
       <c r="H493" s="7"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -5711,7 +5714,7 @@
       <c r="G494" s="2"/>
       <c r="H494" s="7"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -5721,7 +5724,7 @@
       <c r="G495" s="2"/>
       <c r="H495" s="7"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -5731,7 +5734,7 @@
       <c r="G496" s="2"/>
       <c r="H496" s="7"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -5741,7 +5744,7 @@
       <c r="G497" s="2"/>
       <c r="H497" s="7"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -5751,7 +5754,7 @@
       <c r="G498" s="2"/>
       <c r="H498" s="7"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -5761,7 +5764,7 @@
       <c r="G499" s="2"/>
       <c r="H499" s="7"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -5771,7 +5774,7 @@
       <c r="G500" s="2"/>
       <c r="H500" s="7"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -5781,7 +5784,7 @@
       <c r="G501" s="2"/>
       <c r="H501" s="7"/>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -5791,7 +5794,7 @@
       <c r="G502" s="2"/>
       <c r="H502" s="7"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -5801,7 +5804,7 @@
       <c r="G503" s="2"/>
       <c r="H503" s="7"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -5811,7 +5814,7 @@
       <c r="G504" s="2"/>
       <c r="H504" s="7"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -5821,7 +5824,7 @@
       <c r="G505" s="2"/>
       <c r="H505" s="7"/>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -5831,7 +5834,7 @@
       <c r="G506" s="2"/>
       <c r="H506" s="7"/>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -5841,7 +5844,7 @@
       <c r="G507" s="2"/>
       <c r="H507" s="7"/>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -5851,7 +5854,7 @@
       <c r="G508" s="2"/>
       <c r="H508" s="7"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -5861,7 +5864,7 @@
       <c r="G509" s="2"/>
       <c r="H509" s="7"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -5871,7 +5874,7 @@
       <c r="G510" s="2"/>
       <c r="H510" s="7"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -5881,7 +5884,7 @@
       <c r="G511" s="2"/>
       <c r="H511" s="7"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -5891,7 +5894,7 @@
       <c r="G512" s="2"/>
       <c r="H512" s="7"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -5901,7 +5904,7 @@
       <c r="G513" s="2"/>
       <c r="H513" s="7"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -5911,7 +5914,7 @@
       <c r="G514" s="2"/>
       <c r="H514" s="7"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -5921,7 +5924,7 @@
       <c r="G515" s="2"/>
       <c r="H515" s="7"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -5931,7 +5934,7 @@
       <c r="G516" s="2"/>
       <c r="H516" s="7"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -5941,7 +5944,7 @@
       <c r="G517" s="2"/>
       <c r="H517" s="7"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -5951,7 +5954,7 @@
       <c r="G518" s="2"/>
       <c r="H518" s="7"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -5961,7 +5964,7 @@
       <c r="G519" s="2"/>
       <c r="H519" s="7"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -5971,7 +5974,7 @@
       <c r="G520" s="2"/>
       <c r="H520" s="7"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -5981,7 +5984,7 @@
       <c r="G521" s="2"/>
       <c r="H521" s="7"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -5991,7 +5994,7 @@
       <c r="G522" s="2"/>
       <c r="H522" s="7"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -6001,7 +6004,7 @@
       <c r="G523" s="2"/>
       <c r="H523" s="7"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -6011,7 +6014,7 @@
       <c r="G524" s="2"/>
       <c r="H524" s="7"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -6021,7 +6024,7 @@
       <c r="G525" s="2"/>
       <c r="H525" s="7"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -6031,7 +6034,7 @@
       <c r="G526" s="2"/>
       <c r="H526" s="7"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -6041,7 +6044,7 @@
       <c r="G527" s="2"/>
       <c r="H527" s="7"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -6051,7 +6054,7 @@
       <c r="G528" s="2"/>
       <c r="H528" s="7"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -6061,7 +6064,7 @@
       <c r="G529" s="2"/>
       <c r="H529" s="7"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -6071,7 +6074,7 @@
       <c r="G530" s="2"/>
       <c r="H530" s="7"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -6081,7 +6084,7 @@
       <c r="G531" s="2"/>
       <c r="H531" s="7"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -6091,7 +6094,7 @@
       <c r="G532" s="2"/>
       <c r="H532" s="7"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -6101,7 +6104,7 @@
       <c r="G533" s="2"/>
       <c r="H533" s="7"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -6111,7 +6114,7 @@
       <c r="G534" s="2"/>
       <c r="H534" s="7"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -6121,7 +6124,7 @@
       <c r="G535" s="2"/>
       <c r="H535" s="7"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -6131,7 +6134,7 @@
       <c r="G536" s="2"/>
       <c r="H536" s="7"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -6141,7 +6144,7 @@
       <c r="G537" s="2"/>
       <c r="H537" s="7"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -6151,7 +6154,7 @@
       <c r="G538" s="2"/>
       <c r="H538" s="7"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -6161,7 +6164,7 @@
       <c r="G539" s="2"/>
       <c r="H539" s="7"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -6171,7 +6174,7 @@
       <c r="G540" s="2"/>
       <c r="H540" s="7"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -6181,7 +6184,7 @@
       <c r="G541" s="2"/>
       <c r="H541" s="7"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -6191,7 +6194,7 @@
       <c r="G542" s="2"/>
       <c r="H542" s="7"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -6201,7 +6204,7 @@
       <c r="G543" s="2"/>
       <c r="H543" s="7"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -6211,7 +6214,7 @@
       <c r="G544" s="2"/>
       <c r="H544" s="7"/>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -6221,7 +6224,7 @@
       <c r="G545" s="2"/>
       <c r="H545" s="7"/>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -6231,7 +6234,7 @@
       <c r="G546" s="2"/>
       <c r="H546" s="7"/>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -6241,7 +6244,7 @@
       <c r="G547" s="2"/>
       <c r="H547" s="7"/>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -6252,7 +6255,7 @@
       <c r="H548" s="2"/>
       <c r="I548" s="3"/>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -6263,7 +6266,7 @@
       <c r="H549" s="2"/>
       <c r="I549" s="2"/>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -6274,7 +6277,7 @@
       <c r="H550" s="2"/>
       <c r="I550" s="2"/>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -6285,7 +6288,7 @@
       <c r="H551" s="2"/>
       <c r="I551" s="2"/>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -6296,7 +6299,7 @@
       <c r="H552" s="2"/>
       <c r="I552" s="2"/>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -6307,7 +6310,7 @@
       <c r="H553" s="2"/>
       <c r="I553" s="2"/>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -6318,7 +6321,7 @@
       <c r="H554" s="2"/>
       <c r="I554" s="2"/>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -6329,7 +6332,7 @@
       <c r="H555" s="2"/>
       <c r="I555" s="2"/>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -6340,7 +6343,7 @@
       <c r="H556" s="2"/>
       <c r="I556" s="2"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -6351,7 +6354,7 @@
       <c r="H557" s="2"/>
       <c r="I557" s="2"/>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -6362,7 +6365,7 @@
       <c r="H558" s="2"/>
       <c r="I558" s="2"/>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -6373,7 +6376,7 @@
       <c r="H559" s="2"/>
       <c r="I559" s="2"/>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -6384,7 +6387,7 @@
       <c r="H560" s="2"/>
       <c r="I560" s="2"/>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -6395,7 +6398,7 @@
       <c r="H561" s="2"/>
       <c r="I561" s="2"/>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -6406,7 +6409,7 @@
       <c r="H562" s="2"/>
       <c r="I562" s="2"/>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -6417,7 +6420,7 @@
       <c r="H563" s="2"/>
       <c r="I563" s="2"/>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -6428,7 +6431,7 @@
       <c r="H564" s="2"/>
       <c r="I564" s="2"/>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -6439,7 +6442,7 @@
       <c r="H565" s="2"/>
       <c r="I565" s="2"/>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -6450,7 +6453,7 @@
       <c r="H566" s="2"/>
       <c r="I566" s="2"/>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -6461,7 +6464,7 @@
       <c r="H567" s="2"/>
       <c r="I567" s="2"/>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -6472,7 +6475,7 @@
       <c r="H568" s="2"/>
       <c r="I568" s="2"/>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -6483,7 +6486,7 @@
       <c r="H569" s="2"/>
       <c r="I569" s="2"/>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -6494,7 +6497,7 @@
       <c r="H570" s="2"/>
       <c r="I570" s="2"/>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -6505,7 +6508,7 @@
       <c r="H571" s="2"/>
       <c r="I571" s="2"/>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -6516,7 +6519,7 @@
       <c r="H572" s="2"/>
       <c r="I572" s="2"/>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -6527,7 +6530,7 @@
       <c r="H573" s="2"/>
       <c r="I573" s="2"/>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -6538,7 +6541,7 @@
       <c r="H574" s="2"/>
       <c r="I574" s="2"/>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -6549,7 +6552,7 @@
       <c r="H575" s="2"/>
       <c r="I575" s="2"/>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -6560,7 +6563,7 @@
       <c r="H576" s="2"/>
       <c r="I576" s="2"/>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -6571,7 +6574,7 @@
       <c r="H577" s="2"/>
       <c r="I577" s="2"/>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -6582,7 +6585,7 @@
       <c r="H578" s="2"/>
       <c r="I578" s="2"/>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -6593,7 +6596,7 @@
       <c r="H579" s="2"/>
       <c r="I579" s="2"/>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -6604,7 +6607,7 @@
       <c r="H580" s="2"/>
       <c r="I580" s="2"/>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -6615,7 +6618,7 @@
       <c r="H581" s="2"/>
       <c r="I581" s="2"/>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -6626,7 +6629,7 @@
       <c r="H582" s="2"/>
       <c r="I582" s="2"/>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -6637,7 +6640,7 @@
       <c r="H583" s="2"/>
       <c r="I583" s="2"/>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -6648,7 +6651,7 @@
       <c r="H584" s="2"/>
       <c r="I584" s="2"/>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -6659,7 +6662,7 @@
       <c r="H585" s="2"/>
       <c r="I585" s="2"/>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -6670,7 +6673,7 @@
       <c r="H586" s="2"/>
       <c r="I586" s="2"/>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -6681,7 +6684,7 @@
       <c r="H587" s="2"/>
       <c r="I587" s="2"/>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -6692,7 +6695,7 @@
       <c r="H588" s="2"/>
       <c r="I588" s="2"/>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -6703,7 +6706,7 @@
       <c r="H589" s="2"/>
       <c r="I589" s="2"/>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -6714,7 +6717,7 @@
       <c r="H590" s="2"/>
       <c r="I590" s="2"/>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -6725,7 +6728,7 @@
       <c r="H591" s="2"/>
       <c r="I591" s="2"/>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -6736,7 +6739,7 @@
       <c r="H592" s="2"/>
       <c r="I592" s="2"/>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -6747,7 +6750,7 @@
       <c r="H593" s="2"/>
       <c r="I593" s="2"/>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -6758,7 +6761,7 @@
       <c r="H594" s="2"/>
       <c r="I594" s="2"/>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -6769,7 +6772,7 @@
       <c r="H595" s="2"/>
       <c r="I595" s="2"/>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -6780,7 +6783,7 @@
       <c r="H596" s="2"/>
       <c r="I596" s="2"/>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -6791,7 +6794,7 @@
       <c r="H597" s="2"/>
       <c r="I597" s="2"/>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -6802,7 +6805,7 @@
       <c r="H598" s="2"/>
       <c r="I598" s="2"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -6813,7 +6816,7 @@
       <c r="H599" s="2"/>
       <c r="I599" s="2"/>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -6824,7 +6827,7 @@
       <c r="H600" s="2"/>
       <c r="I600" s="2"/>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -6835,7 +6838,7 @@
       <c r="H601" s="2"/>
       <c r="I601" s="2"/>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -6846,7 +6849,7 @@
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -6857,7 +6860,7 @@
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -6868,7 +6871,7 @@
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -6879,7 +6882,7 @@
       <c r="H605" s="2"/>
       <c r="I605" s="2"/>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -6890,7 +6893,7 @@
       <c r="H606" s="2"/>
       <c r="I606" s="2"/>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -6901,7 +6904,7 @@
       <c r="H607" s="2"/>
       <c r="I607" s="2"/>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -6912,7 +6915,7 @@
       <c r="H608" s="2"/>
       <c r="I608" s="2"/>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -6923,7 +6926,7 @@
       <c r="H609" s="2"/>
       <c r="I609" s="2"/>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -6934,7 +6937,7 @@
       <c r="H610" s="2"/>
       <c r="I610" s="2"/>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -6945,7 +6948,7 @@
       <c r="H611" s="2"/>
       <c r="I611" s="2"/>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -6956,7 +6959,7 @@
       <c r="H612" s="2"/>
       <c r="I612" s="2"/>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -6967,7 +6970,7 @@
       <c r="H613" s="2"/>
       <c r="I613" s="2"/>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -6978,7 +6981,7 @@
       <c r="H614" s="2"/>
       <c r="I614" s="2"/>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -6989,7 +6992,7 @@
       <c r="H615" s="2"/>
       <c r="I615" s="2"/>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -7000,7 +7003,7 @@
       <c r="H616" s="2"/>
       <c r="I616" s="2"/>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -7011,7 +7014,7 @@
       <c r="H617" s="2"/>
       <c r="I617" s="2"/>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -7022,7 +7025,7 @@
       <c r="H618" s="2"/>
       <c r="I618" s="2"/>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -7033,7 +7036,7 @@
       <c r="H619" s="2"/>
       <c r="I619" s="2"/>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -7044,7 +7047,7 @@
       <c r="H620" s="2"/>
       <c r="I620" s="2"/>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -7055,7 +7058,7 @@
       <c r="H621" s="2"/>
       <c r="I621" s="2"/>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -7066,7 +7069,7 @@
       <c r="H622" s="2"/>
       <c r="I622" s="2"/>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -7077,7 +7080,7 @@
       <c r="H623" s="2"/>
       <c r="I623" s="2"/>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -7088,7 +7091,7 @@
       <c r="H624" s="2"/>
       <c r="I624" s="2"/>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -7099,7 +7102,7 @@
       <c r="H625" s="2"/>
       <c r="I625" s="2"/>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -7110,7 +7113,7 @@
       <c r="H626" s="2"/>
       <c r="I626" s="2"/>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -7121,7 +7124,7 @@
       <c r="H627" s="2"/>
       <c r="I627" s="2"/>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -7132,7 +7135,7 @@
       <c r="H628" s="2"/>
       <c r="I628" s="2"/>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -7143,7 +7146,7 @@
       <c r="H629" s="2"/>
       <c r="I629" s="2"/>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -7154,7 +7157,7 @@
       <c r="H630" s="2"/>
       <c r="I630" s="2"/>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -7165,7 +7168,7 @@
       <c r="H631" s="2"/>
       <c r="I631" s="2"/>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -7176,7 +7179,7 @@
       <c r="H632" s="2"/>
       <c r="I632" s="2"/>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -7187,7 +7190,7 @@
       <c r="H633" s="2"/>
       <c r="I633" s="2"/>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -7198,7 +7201,7 @@
       <c r="H634" s="2"/>
       <c r="I634" s="2"/>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -7209,7 +7212,7 @@
       <c r="H635" s="2"/>
       <c r="I635" s="2"/>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -7220,7 +7223,7 @@
       <c r="H636" s="2"/>
       <c r="I636" s="2"/>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -7231,7 +7234,7 @@
       <c r="H637" s="2"/>
       <c r="I637" s="2"/>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -7242,7 +7245,7 @@
       <c r="H638" s="2"/>
       <c r="I638" s="2"/>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -7253,7 +7256,7 @@
       <c r="H639" s="2"/>
       <c r="I639" s="2"/>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -7264,7 +7267,7 @@
       <c r="H640" s="2"/>
       <c r="I640" s="2"/>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -7275,7 +7278,7 @@
       <c r="H641" s="2"/>
       <c r="I641" s="2"/>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -7286,7 +7289,7 @@
       <c r="H642" s="2"/>
       <c r="I642" s="2"/>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -7297,7 +7300,7 @@
       <c r="H643" s="2"/>
       <c r="I643" s="2"/>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -7308,7 +7311,7 @@
       <c r="H644" s="2"/>
       <c r="I644" s="2"/>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -7319,7 +7322,7 @@
       <c r="H645" s="2"/>
       <c r="I645" s="2"/>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -7330,7 +7333,7 @@
       <c r="H646" s="2"/>
       <c r="I646" s="2"/>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -7341,7 +7344,7 @@
       <c r="H647" s="2"/>
       <c r="I647" s="2"/>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
